--- a/비번.xlsx
+++ b/비번.xlsx
@@ -22,7 +22,517 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="217">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="220">
+  <x:si>
+    <x:t>종 8925</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작괘들길 41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천지아파트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효염빌리지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목화하우스A동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북문8길 64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현대빌리지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한라빌리지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우성포시즌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방천3길 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방천3길 11-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골든네스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>히트하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이크 하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헌양길 189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하이야트A동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남상평2길 12-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서향교1길 27-7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행복이 가득한집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성우빌라 B동 1,2,3라인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방천7길 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세경하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금빛마을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무궁화빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손 1234#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹원캐슬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#8888#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강변파크빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다인빌리지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다솜원룸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#1001#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종3142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풀하우스2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우주파크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서상평길 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#6745#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종2536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토마스빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#3844#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#6249#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온아트빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#1234#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남천로 174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소슬채아파트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#7777#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>린파크뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메이져빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종3572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노블하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빌라 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동부그린힐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>west51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지스타운</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남천로 144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세홈원룸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍희좋은빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북문8길 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방천3길 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>힐링하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파크빌A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웃방천3길 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에코하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종9181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동향교2길 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#4455#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경은하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지프하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신한빌리지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북문2길 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서부목화빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#9999#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이스빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해피룸 3차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타골든캐슬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동부9길 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동부6길 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상평1길 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#9373#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#3355#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종7016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서문2길 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종7375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서향교1길46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북문2길 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>르비딤B빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2550#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#0000#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아펠바움</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서문3길 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복돼지3차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구교동길 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교동로 34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우성스카이빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐슬하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남천로 182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#2406#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교동로 39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교동로 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤럭시 진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방천2길 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동부2길 35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#7511#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#5678#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#2014#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종1604</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#2016#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#7063#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종2580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#4377#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#5829#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#1907#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종6530</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36551*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종1663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#1111#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#2569#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종9342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#1231#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옛살비하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종0079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#2346#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#2018#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종8271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7890#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백산아트빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#2358#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서문3길 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토미하우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8585#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#3904#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목화하우스B동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#8989#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종6429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종1920</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#6565#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종3788</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종7247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1357#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#2157#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종1223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#0308#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#7981#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#9988#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종1288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동문빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한영빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해오름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월드빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서문빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경동빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리치빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유진빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목화방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세경빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>온누리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재경빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서원빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드림빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤정빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팍팍이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다드림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미성빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레나빌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엘파크</x:t>
+  </x:si>
   <x:si>
     <x:t>남상평2길 12-7</x:t>
   </x:si>
@@ -30,37 +540,67 @@
     <x:t>남상평3길 15-2</x:t>
   </x:si>
   <x:si>
+    <x:t>서향교1길 15-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동향교3길 23-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동향교3길 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서향교1길 15-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남상평1길 28-9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방천3길 7-7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서문3길 14-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방천 3길 5-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동부4길 7-3</x:t>
+  </x:si>
+  <x:si>
     <x:t>북문1길 5-4</x:t>
   </x:si>
   <x:si>
-    <x:t>서문3길 14-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서향교1길 15-6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동향교3길 23-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동향교3길 28</x:t>
-  </x:si>
-  <x:si>
     <x:t>서상평길 9-9</x:t>
   </x:si>
   <x:si>
-    <x:t>서향교1길 15-5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남상평1길 28-9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방천3길 7-7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방천 3길 5-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동부4길 7-3</x:t>
+    <x:t>웃방천3길 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방천3길 15-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남상평2길 34-9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남상평2길 31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>405#1234#t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10#9999#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반구대로 860-9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동향교3길 31-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서향교1길 9-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북문3길 5-15</x:t>
   </x:si>
   <x:si>
     <x:t>서향교1길 21-10</x:t>
@@ -69,13 +609,10 @@
     <x:t>웃방천3길 21</x:t>
   </x:si>
   <x:si>
-    <x:t>동향교3길 31-5</x:t>
-  </x:si>
-  <x:si>
     <x:t>방천5길 17-1</x:t>
   </x:si>
   <x:si>
-    <x:t>반구대로 860-9</x:t>
+    <x:t>동향교2길 19</x:t>
   </x:si>
   <x:si>
     <x:t>서부2길 14-2</x:t>
@@ -84,88 +621,55 @@
     <x:t>열쇠1235열쇠</x:t>
   </x:si>
   <x:si>
-    <x:t>방천3길 15-5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동향교2길 19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웃방천3길 17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남상평2길 34-9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남상평2길 31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>405#1234#t</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10#9999#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서향교1길 9-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북문3길 5-15</x:t>
+    <x:t>동향교1길 16-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동향교2길 5-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서향교1길 73-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북문3길 23-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동향교3길 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동향교1길 27-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클래식 타운캐슬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동향교3길 32-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서상평길 23-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동부1길 26-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서향교1길 27-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서향교1길 31-8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동향교1길 16-8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동부9길 13-3</x:t>
   </x:si>
   <x:si>
     <x:t>서향교1길 72-1</x:t>
   </x:si>
   <x:si>
-    <x:t>서향교1길 27-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서향교1길 31-8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동향교1길 16-8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동부9길 13-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서상평길 23-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클래식 타운캐슬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서향교1길 73-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동향교2길 5-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북문3길 23-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동향교1길 16-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동향교3길 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동향교1길 27-16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동향교3길 32-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동부1길 26-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남상평2길 12-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행복이 가득한집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서향교1길 27-7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방천3길 11-10</x:t>
+    <x:t>남상평2길 35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동향교4길 17</x:t>
   </x:si>
   <x:si>
     <x:t>서향교1길 15-4</x:t>
@@ -177,502 +681,7 @@
     <x:t>서향교1길 27-10</x:t>
   </x:si>
   <x:si>
-    <x:t>동향교4길 17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남상평2길 35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종6429</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문1234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#3904#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#6565#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종7247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#8989#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1357#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8585#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종1920</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종3788</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#9988#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종1223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#0308#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#7981#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종1288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#2157#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#7511#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종2580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#5829#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#5678#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#2014#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종1604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#7063#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#2016#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종1234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#4377#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서문3길 14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종6530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토미하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백산아트빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옛살비하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36551*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종0079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#2346#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#2358#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#2018#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#1907#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종9342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#2569#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#1231#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종8271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7890#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종1663</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#1111#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#9999#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#4455#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#3355#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이스빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세홈원룸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍희좋은빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서부목화빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해피룸 3차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타골든캐슬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방천3길 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북문2길 17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지스타운</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지프하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동부9길 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웃방천3길 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동향교2길 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서문2길 16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북문8길 16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에코하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>힐링하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종7016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남천로 144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파크빌A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상평1길 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경은하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신한빌리지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동부6길 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#9373#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종3572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종3142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#1001#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금빛마을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노블하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종2536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#7777#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#1234#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소슬채아파트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#6249#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빌라 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다인빌리지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온아트빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동부그린힐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다솜원룸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남천로 174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무궁화빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#6745#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풀하우스2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>린파크뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토마스빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메이져빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서상평길 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손 1234#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#3844#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>west51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세경하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹원캐슬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#8888#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강변파크빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우주파크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우성포시즌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한라빌리지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>천지아파트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효염빌리지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목화하우스A동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북문8길 64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현대빌리지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>히트하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하이야트A동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헌양길 189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골든네스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방천7길 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이크 하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방천3길 15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종9181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목화하우스B동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교동로 39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#2406#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서향교1길46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남천로 182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우성스카이빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북문2길 15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교동로 34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교동로 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서문3길 18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종7375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>르비딤B빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갤럭시 진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방천2길 22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아펠바움</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동부2길 35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>복돼지3차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구교동길 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐슬하우스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2550#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성우빌라 B동 1,2,3라인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목화방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미성빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엘파크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤정빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해오름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리치빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다드림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레나빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서원빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한영빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서문빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드림빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재경빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월드빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경동빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세경빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동문빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유진빌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>온누리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팍팍이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#0000#</x:t>
+    <x:t>영남알프스 타운</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -757,6 +766,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -839,6 +849,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -873,6 +884,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -917,6 +929,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -960,6 +973,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1044,6 +1058,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1064,6 +1079,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1094,6 +1110,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1459,861 +1476,879 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1" filterMode="1"/>
-  <x:dimension ref="A1:C77"/>
+  <x:dimension ref="A1:E78"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D80" activeCellId="0" sqref="D80:D80"/>
+      <x:selection activeCell="K96" activeCellId="0" sqref="K96:K96"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="20.875" style="1" customWidth="1"/>
     <x:col min="2" max="3" width="19.375" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="94" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="23.7890625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="22.3984375" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B53" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C53" s="1" t="s">
         <x:v>206</x:v>
-      </x:c>
-      <x:c r="B53" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C53" s="1" t="s">
-        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
       <x:c r="A59" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
       <x:c r="A60" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
       <x:c r="A65" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
       <x:c r="A66" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
       <x:c r="A67" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B67" s="1">
         <x:v>1024</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
       <x:c r="A68" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B68" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
       <x:c r="A69" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C69" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
       <x:c r="A70" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C71" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
       <x:c r="A72" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C72" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
       <x:c r="A73" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C73" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
       <x:c r="A74" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
       <x:c r="A75" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B75" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C75" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
       <x:c r="A76" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C76" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:2">
       <x:c r="A77" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:5">
+      <x:c r="A78" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B78" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C78" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D78">
+        <x:v>35.543639713169</x:v>
+      </x:c>
+      <x:c r="E78">
+        <x:v>129.106475773</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2323,7 +2358,7 @@
     </x:sortState>
   </x:autoFilter>
   <x:sortState columnSort="0" caseSensitive="0" ref="A1:C76"/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>